--- a/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 8 оптимизация первой варки последней линии 2.xlsx
+++ b/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 8 оптимизация первой варки последней линии 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marklidenberg/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/static/samples/inputs/by_department/mozzarella/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D92E6E1-CB63-584C-BF49-E751E033F12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929B008F-3E0F-FA4A-BB54-9311ECE385C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="299">
   <si>
     <t>График наливов</t>
   </si>
@@ -927,6 +927,9 @@
   </si>
   <si>
     <t>Н0000098165</t>
+  </si>
+  <si>
+    <t>mi</t>
   </si>
 </sst>
 </file>
@@ -12206,7 +12209,7 @@
       <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12967,6 +12970,9 @@
         <f ca="1">IF(M10="", IF(O10="","",X10+(INDIRECT("S" &amp; ROW() - 1) - S10)),IF(O10="", "", INDIRECT("S" &amp; ROW() - 1) - S10))</f>
         <v>-50</v>
       </c>
+      <c r="L10" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="M10" s="15">
         <v>8000</v>
       </c>
@@ -13281,6 +13287,9 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
+      <c r="L14" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="M14" s="15">
         <v>8000</v>
       </c>
@@ -13515,6 +13524,9 @@
       <c r="J17" s="3">
         <f ca="1">IF(M17="", IF(O17="","",X17+(INDIRECT("S" &amp; ROW() - 1) - S17)),IF(O17="", "", INDIRECT("S" &amp; ROW() - 1) - S17))</f>
         <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="M17" s="15">
         <v>8000</v>
@@ -21327,6 +21339,9 @@
       </c>
     </row>
     <row r="28" spans="1:1025" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="J28" s="3" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -21356,17 +21371,17 @@
         <f>IF(H28="","",VLOOKUP(H28,'Вода SKU'!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="U28" s="1">
+      <c r="U28" s="1" t="e">
         <f t="shared" ca="1" si="27"/>
-        <v>8</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V28" s="1">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="W28" s="1">
+      <c r="W28" s="1" t="e">
         <f t="shared" ca="1" si="29"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X28" s="1" t="str">
         <f t="shared" ca="1" si="30"/>

--- a/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 8 оптимизация первой варки последней линии 2.xlsx
+++ b/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 8 оптимизация первой варки последней линии 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marklidenberg/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/static/samples/inputs/by_department/mozzarella/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929B008F-3E0F-FA4A-BB54-9311ECE385C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB695C3A-7684-CF4C-81F9-CA6A29A004FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12209,7 +12209,7 @@
       <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
